--- a/DEAC000011-库存查询-20170719Cole.xlsx
+++ b/DEAC000011-库存查询-20170719Cole.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="1555">
   <si>
     <t>产品编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5610,12 +5610,19 @@
   </si>
   <si>
     <t>DFD000003</t>
+  </si>
+  <si>
+    <t>CP00388</t>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5905,6 +5912,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5915,15 +5931,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6001,7 +6008,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6287,11 +6294,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L385"/>
+  <dimension ref="A1:L386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B388" sqref="B388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19086,6 +19093,14 @@
       <c r="K385" s="1"/>
       <c r="L385" s="15" t="s">
         <v>1169</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A386" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>1554</v>
       </c>
     </row>
   </sheetData>
@@ -19138,10 +19153,10 @@
       <c r="F1" s="30" t="s">
         <v>1351</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="48" t="s">
         <v>1352</v>
       </c>
-      <c r="I1" s="45"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32">
@@ -19159,7 +19174,7 @@
       <c r="E2" s="41" t="s">
         <v>1356</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="45" t="s">
         <v>1357</v>
       </c>
       <c r="H2" s="33"/>
@@ -19181,7 +19196,7 @@
         <v>1361</v>
       </c>
       <c r="E3" s="41"/>
-      <c r="F3" s="43"/>
+      <c r="F3" s="46"/>
       <c r="H3" s="35"/>
       <c r="I3" s="34" t="s">
         <v>1362</v>
@@ -19201,7 +19216,7 @@
         <v>1365</v>
       </c>
       <c r="E4" s="41"/>
-      <c r="F4" s="43"/>
+      <c r="F4" s="46"/>
       <c r="H4" s="36"/>
       <c r="I4" s="34" t="s">
         <v>1366</v>
@@ -19223,7 +19238,7 @@
       <c r="E5" s="41" t="s">
         <v>1369</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
@@ -19237,7 +19252,7 @@
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="41"/>
-      <c r="F6" s="43"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="32">
@@ -19251,7 +19266,7 @@
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="41"/>
-      <c r="F7" s="43"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="32">
@@ -19265,7 +19280,7 @@
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="41"/>
-      <c r="F8" s="43"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="32">
@@ -19279,7 +19294,7 @@
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="41"/>
-      <c r="F9" s="43"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
@@ -19293,7 +19308,7 @@
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="43"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="32">
@@ -19307,7 +19322,7 @@
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="43"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="32">
@@ -19321,7 +19336,7 @@
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="43"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="32">
@@ -19335,7 +19350,7 @@
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="41"/>
-      <c r="F13" s="43"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="32">
@@ -19349,7 +19364,7 @@
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="41"/>
-      <c r="F14" s="43"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
@@ -19365,7 +19380,7 @@
       <c r="E15" s="41" t="s">
         <v>1381</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="32">
@@ -19381,7 +19396,7 @@
         <v>1387</v>
       </c>
       <c r="E16" s="41"/>
-      <c r="F16" s="43"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="32">
@@ -19397,7 +19412,7 @@
         <v>1387</v>
       </c>
       <c r="E17" s="41"/>
-      <c r="F17" s="43"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="32">
@@ -19413,7 +19428,7 @@
       <c r="E18" s="38" t="s">
         <v>1385</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
@@ -19451,7 +19466,7 @@
       <c r="E20" s="41" t="s">
         <v>1238</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="45" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -19469,7 +19484,7 @@
         <v>1387</v>
       </c>
       <c r="E21" s="41"/>
-      <c r="F21" s="43"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
@@ -19485,7 +19500,7 @@
         <v>1387</v>
       </c>
       <c r="E22" s="41"/>
-      <c r="F22" s="43"/>
+      <c r="F22" s="46"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
@@ -19501,7 +19516,7 @@
         <v>1397</v>
       </c>
       <c r="E23" s="41"/>
-      <c r="F23" s="43"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
@@ -19517,7 +19532,7 @@
         <v>1397</v>
       </c>
       <c r="E24" s="41"/>
-      <c r="F24" s="43"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
@@ -19533,7 +19548,7 @@
         <v>1397</v>
       </c>
       <c r="E25" s="41"/>
-      <c r="F25" s="43"/>
+      <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
@@ -19549,7 +19564,7 @@
         <v>1397</v>
       </c>
       <c r="E26" s="41"/>
-      <c r="F26" s="43"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
@@ -19565,7 +19580,7 @@
         <v>1397</v>
       </c>
       <c r="E27" s="41"/>
-      <c r="F27" s="43"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
@@ -19581,7 +19596,7 @@
         <v>1397</v>
       </c>
       <c r="E28" s="41"/>
-      <c r="F28" s="43"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
@@ -19597,7 +19612,7 @@
         <v>1397</v>
       </c>
       <c r="E29" s="41"/>
-      <c r="F29" s="43"/>
+      <c r="F29" s="46"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
@@ -19613,7 +19628,7 @@
         <v>1397</v>
       </c>
       <c r="E30" s="41"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="46"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
@@ -19629,7 +19644,7 @@
         <v>1397</v>
       </c>
       <c r="E31" s="41"/>
-      <c r="F31" s="43"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
@@ -19645,7 +19660,7 @@
         <v>1397</v>
       </c>
       <c r="E32" s="41"/>
-      <c r="F32" s="43"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
@@ -19661,7 +19676,7 @@
         <v>1397</v>
       </c>
       <c r="E33" s="41"/>
-      <c r="F33" s="43"/>
+      <c r="F33" s="46"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
@@ -19677,7 +19692,7 @@
         <v>1397</v>
       </c>
       <c r="E34" s="41"/>
-      <c r="F34" s="43"/>
+      <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="32">
@@ -19693,7 +19708,7 @@
         <v>1387</v>
       </c>
       <c r="E35" s="41"/>
-      <c r="F35" s="43"/>
+      <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="32">
@@ -19709,7 +19724,7 @@
         <v>1387</v>
       </c>
       <c r="E36" s="41"/>
-      <c r="F36" s="43"/>
+      <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="32">
@@ -19725,7 +19740,7 @@
         <v>1387</v>
       </c>
       <c r="E37" s="41"/>
-      <c r="F37" s="43"/>
+      <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="32">
@@ -19743,7 +19758,7 @@
       <c r="E38" s="41" t="s">
         <v>1239</v>
       </c>
-      <c r="F38" s="43"/>
+      <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="32">
@@ -19759,7 +19774,7 @@
         <v>1387</v>
       </c>
       <c r="E39" s="41"/>
-      <c r="F39" s="43"/>
+      <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="32">
@@ -19775,7 +19790,7 @@
         <v>1397</v>
       </c>
       <c r="E40" s="41"/>
-      <c r="F40" s="43"/>
+      <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="32">
@@ -19791,7 +19806,7 @@
         <v>1397</v>
       </c>
       <c r="E41" s="41"/>
-      <c r="F41" s="43"/>
+      <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="32">
@@ -19807,7 +19822,7 @@
         <v>1397</v>
       </c>
       <c r="E42" s="41"/>
-      <c r="F42" s="43"/>
+      <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="32">
@@ -19823,7 +19838,7 @@
         <v>1397</v>
       </c>
       <c r="E43" s="41"/>
-      <c r="F43" s="43"/>
+      <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="32">
@@ -19839,7 +19854,7 @@
         <v>1397</v>
       </c>
       <c r="E44" s="41"/>
-      <c r="F44" s="43"/>
+      <c r="F44" s="46"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="32">
@@ -19855,7 +19870,7 @@
         <v>1397</v>
       </c>
       <c r="E45" s="41"/>
-      <c r="F45" s="43"/>
+      <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="32">
@@ -19871,7 +19886,7 @@
         <v>1387</v>
       </c>
       <c r="E46" s="41"/>
-      <c r="F46" s="43"/>
+      <c r="F46" s="46"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="32">
@@ -19887,7 +19902,7 @@
         <v>1387</v>
       </c>
       <c r="E47" s="41"/>
-      <c r="F47" s="43"/>
+      <c r="F47" s="46"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="32">
@@ -19903,7 +19918,7 @@
       <c r="E48" s="33" t="s">
         <v>1422</v>
       </c>
-      <c r="F48" s="44"/>
+      <c r="F48" s="47"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="32">
@@ -19921,7 +19936,7 @@
       <c r="E49" s="41" t="s">
         <v>1282</v>
       </c>
-      <c r="F49" s="42" t="s">
+      <c r="F49" s="45" t="s">
         <v>1425</v>
       </c>
     </row>
@@ -19939,7 +19954,7 @@
         <v>1424</v>
       </c>
       <c r="E50" s="41"/>
-      <c r="F50" s="43"/>
+      <c r="F50" s="46"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="32">
@@ -19955,7 +19970,7 @@
         <v>1424</v>
       </c>
       <c r="E51" s="41"/>
-      <c r="F51" s="43"/>
+      <c r="F51" s="46"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="32">
@@ -19971,7 +19986,7 @@
         <v>1397</v>
       </c>
       <c r="E52" s="41"/>
-      <c r="F52" s="43"/>
+      <c r="F52" s="46"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="32">
@@ -19987,7 +20002,7 @@
         <v>1397</v>
       </c>
       <c r="E53" s="41"/>
-      <c r="F53" s="43"/>
+      <c r="F53" s="46"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="32">
@@ -20003,7 +20018,7 @@
         <v>1397</v>
       </c>
       <c r="E54" s="41"/>
-      <c r="F54" s="43"/>
+      <c r="F54" s="46"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="32">
@@ -20019,7 +20034,7 @@
         <v>1397</v>
       </c>
       <c r="E55" s="41"/>
-      <c r="F55" s="43"/>
+      <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="32">
@@ -20035,7 +20050,7 @@
         <v>1397</v>
       </c>
       <c r="E56" s="41"/>
-      <c r="F56" s="43"/>
+      <c r="F56" s="46"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="32">
@@ -20051,7 +20066,7 @@
         <v>1434</v>
       </c>
       <c r="E57" s="41"/>
-      <c r="F57" s="43"/>
+      <c r="F57" s="46"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="32">
@@ -20067,7 +20082,7 @@
         <v>1434</v>
       </c>
       <c r="E58" s="41"/>
-      <c r="F58" s="43"/>
+      <c r="F58" s="46"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="32">
@@ -20085,7 +20100,7 @@
       <c r="E59" s="41" t="s">
         <v>1437</v>
       </c>
-      <c r="F59" s="43"/>
+      <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="32">
@@ -20101,7 +20116,7 @@
         <v>1397</v>
       </c>
       <c r="E60" s="41"/>
-      <c r="F60" s="43"/>
+      <c r="F60" s="46"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="32">
@@ -20117,7 +20132,7 @@
         <v>1397</v>
       </c>
       <c r="E61" s="41"/>
-      <c r="F61" s="43"/>
+      <c r="F61" s="46"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="32">
@@ -20133,7 +20148,7 @@
         <v>1397</v>
       </c>
       <c r="E62" s="41"/>
-      <c r="F62" s="43"/>
+      <c r="F62" s="46"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="32">
@@ -20149,7 +20164,7 @@
       <c r="E63" s="41" t="s">
         <v>1279</v>
       </c>
-      <c r="F63" s="43"/>
+      <c r="F63" s="46"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="32">
@@ -20163,7 +20178,7 @@
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="41"/>
-      <c r="F64" s="43"/>
+      <c r="F64" s="46"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="32">
@@ -20179,7 +20194,7 @@
         <v>1387</v>
       </c>
       <c r="E65" s="41"/>
-      <c r="F65" s="43"/>
+      <c r="F65" s="46"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="32">
@@ -20195,7 +20210,7 @@
         <v>1387</v>
       </c>
       <c r="E66" s="41"/>
-      <c r="F66" s="43"/>
+      <c r="F66" s="46"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="32">
@@ -20211,7 +20226,7 @@
         <v>1387</v>
       </c>
       <c r="E67" s="41"/>
-      <c r="F67" s="43"/>
+      <c r="F67" s="46"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="32">
@@ -20227,7 +20242,7 @@
         <v>1387</v>
       </c>
       <c r="E68" s="41"/>
-      <c r="F68" s="43"/>
+      <c r="F68" s="46"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="32">
@@ -20243,7 +20258,7 @@
         <v>1424</v>
       </c>
       <c r="E69" s="41"/>
-      <c r="F69" s="43"/>
+      <c r="F69" s="46"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="32">
@@ -20259,7 +20274,7 @@
         <v>1387</v>
       </c>
       <c r="E70" s="41"/>
-      <c r="F70" s="43"/>
+      <c r="F70" s="46"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="32">
@@ -20275,7 +20290,7 @@
         <v>1424</v>
       </c>
       <c r="E71" s="41"/>
-      <c r="F71" s="43"/>
+      <c r="F71" s="46"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="32">
@@ -20293,7 +20308,7 @@
       <c r="E72" s="41" t="s">
         <v>1452</v>
       </c>
-      <c r="F72" s="43"/>
+      <c r="F72" s="46"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="32">
@@ -20309,7 +20324,7 @@
         <v>1397</v>
       </c>
       <c r="E73" s="41"/>
-      <c r="F73" s="43"/>
+      <c r="F73" s="46"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="32">
@@ -20325,7 +20340,7 @@
         <v>1397</v>
       </c>
       <c r="E74" s="41"/>
-      <c r="F74" s="43"/>
+      <c r="F74" s="46"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="32">
@@ -20341,7 +20356,7 @@
         <v>1397</v>
       </c>
       <c r="E75" s="41"/>
-      <c r="F75" s="43"/>
+      <c r="F75" s="46"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="32">
@@ -20357,7 +20372,7 @@
         <v>1397</v>
       </c>
       <c r="E76" s="41"/>
-      <c r="F76" s="43"/>
+      <c r="F76" s="46"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="32">
@@ -20371,7 +20386,7 @@
       <c r="E77" s="40" t="s">
         <v>1457</v>
       </c>
-      <c r="F77" s="43"/>
+      <c r="F77" s="46"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="32">
@@ -20387,7 +20402,7 @@
       <c r="E78" s="33" t="s">
         <v>1458</v>
       </c>
-      <c r="F78" s="44"/>
+      <c r="F78" s="47"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="32">
@@ -20581,7 +20596,7 @@
       <c r="E91" s="41" t="s">
         <v>1476</v>
       </c>
-      <c r="F91" s="46" t="s">
+      <c r="F91" s="42" t="s">
         <v>1477</v>
       </c>
     </row>
@@ -20597,7 +20612,7 @@
       </c>
       <c r="D92" s="32"/>
       <c r="E92" s="41"/>
-      <c r="F92" s="47"/>
+      <c r="F92" s="43"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="32">
@@ -20611,7 +20626,7 @@
       </c>
       <c r="D93" s="32"/>
       <c r="E93" s="41"/>
-      <c r="F93" s="47"/>
+      <c r="F93" s="43"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="32">
@@ -20625,7 +20640,7 @@
       </c>
       <c r="D94" s="32"/>
       <c r="E94" s="41"/>
-      <c r="F94" s="48"/>
+      <c r="F94" s="44"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="32">
@@ -20887,7 +20902,7 @@
       <c r="E110" s="41" t="s">
         <v>1501</v>
       </c>
-      <c r="F110" s="42" t="s">
+      <c r="F110" s="45" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -20905,7 +20920,7 @@
         <v>1387</v>
       </c>
       <c r="E111" s="41"/>
-      <c r="F111" s="43"/>
+      <c r="F111" s="46"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="32">
@@ -20921,7 +20936,7 @@
         <v>1387</v>
       </c>
       <c r="E112" s="41"/>
-      <c r="F112" s="43"/>
+      <c r="F112" s="46"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="32">
@@ -20937,7 +20952,7 @@
         <v>1387</v>
       </c>
       <c r="E113" s="41"/>
-      <c r="F113" s="43"/>
+      <c r="F113" s="46"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="32">
@@ -20953,7 +20968,7 @@
         <v>1387</v>
       </c>
       <c r="E114" s="41"/>
-      <c r="F114" s="43"/>
+      <c r="F114" s="46"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="32">
@@ -20971,7 +20986,7 @@
       <c r="E115" s="41" t="s">
         <v>1508</v>
       </c>
-      <c r="F115" s="43"/>
+      <c r="F115" s="46"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="32">
@@ -20987,7 +21002,7 @@
         <v>1387</v>
       </c>
       <c r="E116" s="41"/>
-      <c r="F116" s="43"/>
+      <c r="F116" s="46"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="32">
@@ -21003,7 +21018,7 @@
         <v>1387</v>
       </c>
       <c r="E117" s="41"/>
-      <c r="F117" s="43"/>
+      <c r="F117" s="46"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="32">
@@ -21019,7 +21034,7 @@
         <v>1387</v>
       </c>
       <c r="E118" s="41"/>
-      <c r="F118" s="43"/>
+      <c r="F118" s="46"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="32">
@@ -21035,7 +21050,7 @@
         <v>1387</v>
       </c>
       <c r="E119" s="41"/>
-      <c r="F119" s="43"/>
+      <c r="F119" s="46"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="32">
@@ -21051,7 +21066,7 @@
         <v>1387</v>
       </c>
       <c r="E120" s="41"/>
-      <c r="F120" s="43"/>
+      <c r="F120" s="46"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="32">
@@ -21067,7 +21082,7 @@
       <c r="E121" s="41" t="s">
         <v>1515</v>
       </c>
-      <c r="F121" s="43"/>
+      <c r="F121" s="46"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="32">
@@ -21083,7 +21098,7 @@
         <v>1397</v>
       </c>
       <c r="E122" s="41"/>
-      <c r="F122" s="43"/>
+      <c r="F122" s="46"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="32">
@@ -21099,7 +21114,7 @@
         <v>1397</v>
       </c>
       <c r="E123" s="41"/>
-      <c r="F123" s="43"/>
+      <c r="F123" s="46"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="32">
@@ -21115,7 +21130,7 @@
         <v>1397</v>
       </c>
       <c r="E124" s="41"/>
-      <c r="F124" s="43"/>
+      <c r="F124" s="46"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="32">
@@ -21129,7 +21144,7 @@
       </c>
       <c r="D125" s="32"/>
       <c r="E125" s="41"/>
-      <c r="F125" s="43"/>
+      <c r="F125" s="46"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="32">
@@ -21145,7 +21160,7 @@
       <c r="E126" s="41" t="s">
         <v>1521</v>
       </c>
-      <c r="F126" s="43"/>
+      <c r="F126" s="46"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="32">
@@ -21159,7 +21174,7 @@
       </c>
       <c r="D127" s="32"/>
       <c r="E127" s="41"/>
-      <c r="F127" s="43"/>
+      <c r="F127" s="46"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="32">
@@ -21175,7 +21190,7 @@
         <v>1397</v>
       </c>
       <c r="E128" s="41"/>
-      <c r="F128" s="43"/>
+      <c r="F128" s="46"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="32">
@@ -21191,7 +21206,7 @@
         <v>1397</v>
       </c>
       <c r="E129" s="41"/>
-      <c r="F129" s="43"/>
+      <c r="F129" s="46"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="32">
@@ -21207,7 +21222,7 @@
         <v>1526</v>
       </c>
       <c r="E130" s="41"/>
-      <c r="F130" s="43"/>
+      <c r="F130" s="46"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="32">
@@ -21223,7 +21238,7 @@
         <v>1397</v>
       </c>
       <c r="E131" s="41"/>
-      <c r="F131" s="43"/>
+      <c r="F131" s="46"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="32">
@@ -21239,7 +21254,7 @@
         <v>1526</v>
       </c>
       <c r="E132" s="41"/>
-      <c r="F132" s="43"/>
+      <c r="F132" s="46"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="32">
@@ -21255,7 +21270,7 @@
         <v>1397</v>
       </c>
       <c r="E133" s="41"/>
-      <c r="F133" s="43"/>
+      <c r="F133" s="46"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="32">
@@ -21269,7 +21284,7 @@
       </c>
       <c r="D134" s="32"/>
       <c r="E134" s="41"/>
-      <c r="F134" s="43"/>
+      <c r="F134" s="46"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="32">
@@ -21283,7 +21298,7 @@
       </c>
       <c r="D135" s="32"/>
       <c r="E135" s="41"/>
-      <c r="F135" s="43"/>
+      <c r="F135" s="46"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="32">
@@ -21299,7 +21314,7 @@
       <c r="E136" s="33" t="s">
         <v>1532</v>
       </c>
-      <c r="F136" s="44"/>
+      <c r="F136" s="47"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="32">
@@ -21395,6 +21410,24 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E20:E37"/>
+    <mergeCell ref="F20:F48"/>
+    <mergeCell ref="E38:E47"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F18"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F90"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E49:E58"/>
+    <mergeCell ref="F49:F78"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="E63:E71"/>
+    <mergeCell ref="E72:E76"/>
     <mergeCell ref="E137:E138"/>
     <mergeCell ref="F137:F142"/>
     <mergeCell ref="E139:E140"/>
@@ -21408,24 +21441,6 @@
     <mergeCell ref="E115:E120"/>
     <mergeCell ref="E121:E125"/>
     <mergeCell ref="E126:E135"/>
-    <mergeCell ref="E49:E58"/>
-    <mergeCell ref="F49:F78"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="E63:E71"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F90"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="E20:E37"/>
-    <mergeCell ref="F20:F48"/>
-    <mergeCell ref="E38:E47"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F18"/>
-    <mergeCell ref="E5:E14"/>
-    <mergeCell ref="E15:E17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
